--- a/data.xlsx
+++ b/data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computer\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computer\Documents\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE82593-39DF-4020-8152-5EAB52331C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CD35F-25C4-463F-BC1E-91F9400B9CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92CE8517-998F-4750-BBAC-4AC53242859F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{92CE8517-998F-4750-BBAC-4AC53242859F}"/>
   </bookViews>
   <sheets>
     <sheet name="Crate" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="hidden_SheetName" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -438,20 +438,20 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C006E9EE-09DA-47F6-AFF3-2ECABF865A26}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1174,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5295624-5B1D-45FF-BD3B-F9A3005E6D1F}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
